--- a/Ke-hoach-thuc-hien-Do-An-1.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Secret\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\itproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEF4F58-7949-4BEC-A233-A0D66460CF82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7F68B-DB56-4454-A169-AE059F9C7A9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>24/11/2021</t>
   </si>
   <si>
-    <t>Thiết kế website bán rau củ cho người tiêu dùng</t>
-  </si>
-  <si>
     <t>Tạ Quang Sang</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>30/11/2021</t>
+  </si>
+  <si>
+    <t>Thiết kế website bán mô hình</t>
   </si>
 </sst>
 </file>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -1332,7 +1332,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -1348,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>15</v>
@@ -1366,7 +1366,7 @@
       <c r="A5" s="36"/>
       <c r="B5" s="37"/>
       <c r="C5" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>15</v>
@@ -1403,10 +1403,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>11</v>
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="23" t="s">
@@ -1547,7 +1547,7 @@
         <v>44509</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="29"/>
@@ -1584,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="25">
         <v>44265</v>
@@ -1613,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="22" t="s">
@@ -1627,7 +1627,7 @@
         <v>44296</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="20"/>
@@ -1646,10 +1646,10 @@
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>37</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="20"/>
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="21" t="s">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="25" t="s">
         <v>24</v>
@@ -1701,7 +1701,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="22" t="s">
@@ -1715,7 +1715,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="20"/>

--- a/Ke-hoach-thuc-hien-Do-An-1.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\itproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7F68B-DB56-4454-A169-AE059F9C7A9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC21F9-359D-4FD2-8072-9D898C6D4A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -84,9 +84,6 @@
     <t xml:space="preserve"> Lựa chọn đề tài,  xây dựng mục tiêu</t>
   </si>
   <si>
-    <t>Tạo sơ đồ cho trang web</t>
-  </si>
-  <si>
     <t>Thu thập hình ảnh tài liệu liên quan</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>25/11/2021</t>
   </si>
   <si>
-    <t>24/11/2021</t>
-  </si>
-  <si>
     <t>Tạ Quang Sang</t>
   </si>
   <si>
@@ -144,10 +138,19 @@
     <t>17/11/2021</t>
   </si>
   <si>
-    <t>30/11/2021</t>
-  </si>
-  <si>
     <t>Thiết kế website bán mô hình</t>
+  </si>
+  <si>
+    <t>Thiết kế cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>20/11/2021</t>
+  </si>
+  <si>
+    <t>21/11/2021</t>
+  </si>
+  <si>
+    <t>khảo sát, tạo sơ đồ cho trang web</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,6 +683,18 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -688,6 +703,39 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dashed">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -869,36 +917,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="dashed">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -997,19 +1015,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J16" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A7:J16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J17" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A7:J17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DANH SÁCH CÔNG VIỆC" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ghi chú" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tạ Quang Sang" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm Đức Huấn" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ2" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tạ Quang Sang" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm Đức Huấn" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ2" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,19 +1296,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="11" customWidth="1"/>
     <col min="2" max="2" width="51.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.21875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="33.21875" style="13" hidden="1" customWidth="1"/>
     <col min="7" max="10" width="25.77734375" style="13" customWidth="1"/>
     <col min="11" max="26" width="8.77734375" style="1"/>
@@ -1316,7 +1334,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -1332,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -1348,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>15</v>
@@ -1366,7 +1384,7 @@
       <c r="A5" s="36"/>
       <c r="B5" s="37"/>
       <c r="C5" s="50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>15</v>
@@ -1403,10 +1421,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>11</v>
@@ -1440,10 +1458,10 @@
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="34"/>
@@ -1469,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="23" t="s">
@@ -1480,7 +1498,7 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="47">
         <v>44236</v>
@@ -1509,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="22" t="s">
@@ -1533,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="22" t="s">
@@ -1547,7 +1565,7 @@
         <v>44509</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="29"/>
@@ -1573,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="22" t="s">
@@ -1584,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12" s="25">
         <v>44265</v>
@@ -1608,111 +1626,111 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="25">
+      <c r="F13" s="16"/>
+      <c r="G13" s="47">
         <v>44296</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="20"/>
+      <c r="H13" s="47">
+        <v>44479</v>
+      </c>
+      <c r="I13" s="47"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="25" t="s">
-        <v>35</v>
+      <c r="G14" s="25">
+        <v>44296</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="15" spans="1:26" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="H15" s="25" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
+      <c r="B16" s="58" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="25" t="s">
-        <v>23</v>
+      <c r="F16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>38</v>
@@ -1736,6 +1754,46 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
+    <row r="17" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>

--- a/Ke-hoach-thuc-hien-Do-An-1.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\itproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BC21F9-359D-4FD2-8072-9D898C6D4A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFA7C52-862F-4E55-BA7B-835BA91A6978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t xml:space="preserve"> Lựa chọn đề tài,  xây dựng mục tiêu</t>
   </si>
   <si>
-    <t>Thu thập hình ảnh tài liệu liên quan</t>
-  </si>
-  <si>
     <t>Thiết kế giao diện website</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>khảo sát, tạo sơ đồ cho trang web</t>
+  </si>
+  <si>
+    <t>Tìm kiếm tài liệu liên quan đến website</t>
   </si>
 </sst>
 </file>
@@ -672,6 +672,18 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,18 +695,6 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -703,39 +703,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="dashed">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -917,6 +884,39 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dashed">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1021,13 +1021,13 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DANH SÁCH CÔNG VIỆC" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ghi chú" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tạ Quang Sang" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm Đức Huấn" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ2" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tạ Quang Sang" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm Đức Huấn" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ2" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,50 +1315,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53"/>
+      <c r="C2" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="C3" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
@@ -1366,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>15</v>
@@ -1384,7 +1384,7 @@
       <c r="A5" s="36"/>
       <c r="B5" s="37"/>
       <c r="C5" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>15</v>
@@ -1421,10 +1421,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>11</v>
@@ -1458,10 +1458,10 @@
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="34"/>
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="23" t="s">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="47">
         <v>44236</v>
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="22" t="s">
@@ -1551,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="22" t="s">
@@ -1565,7 +1565,7 @@
         <v>44509</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="29"/>
@@ -1591,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="22" t="s">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="25">
         <v>44265</v>
@@ -1630,10 +1630,10 @@
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="56"/>
+      <c r="B13" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="52"/>
       <c r="D13" s="23" t="s">
         <v>4</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>44479</v>
       </c>
       <c r="I13" s="47"/>
-      <c r="J13" s="57"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1671,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="22" t="s">
@@ -1685,7 +1685,7 @@
         <v>44296</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="20"/>
@@ -1704,10 +1704,10 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>33</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>34</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="20"/>
@@ -1716,8 +1716,8 @@
       <c r="A16" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>26</v>
+      <c r="B16" s="54" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="21" t="s">
@@ -1730,10 +1730,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="20"/>
@@ -1759,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="22" t="s">
@@ -1770,10 +1770,10 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="20"/>

--- a/Ke-hoach-thuc-hien-Do-An-1.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\itproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFA7C52-862F-4E55-BA7B-835BA91A6978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1C1E3B-6AEC-430C-BADE-BB805AA0F9E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -135,22 +135,25 @@
     <t>17/11/2021</t>
   </si>
   <si>
-    <t>Thiết kế website bán mô hình</t>
-  </si>
-  <si>
-    <t>Thiết kế cơ sở dữ liệu</t>
-  </si>
-  <si>
     <t>20/11/2021</t>
   </si>
   <si>
     <t>21/11/2021</t>
   </si>
   <si>
-    <t>khảo sát, tạo sơ đồ cho trang web</t>
-  </si>
-  <si>
     <t>Tìm kiếm tài liệu liên quan đến website</t>
+  </si>
+  <si>
+    <t>26/08/2021</t>
+  </si>
+  <si>
+    <t>28/08/2021</t>
+  </si>
+  <si>
+    <t>Thiết kế website bán quần áo nam</t>
+  </si>
+  <si>
+    <t>khảo sát, xây dựng tính năng cho trang web</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -609,13 +612,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,9 +654,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,17 +666,17 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1015,8 +1009,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J17" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A7:J17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J16" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A7:J16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DANH SÁCH CÔNG VIỆC" dataDxfId="8"/>
@@ -1296,119 +1290,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="11" customWidth="1"/>
     <col min="2" max="2" width="51.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="33.21875" style="13" hidden="1" customWidth="1"/>
     <col min="7" max="10" width="25.77734375" style="13" customWidth="1"/>
     <col min="11" max="26" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
     </row>
-    <row r="2" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="C2" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
     </row>
-    <row r="3" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="39">
         <v>19110277</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="50" t="s">
+    <row r="5" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="46">
         <v>19110211</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
     </row>
-    <row r="6" spans="1:26" s="39" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+    <row r="6" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1453,7 +1447,7 @@
       <c r="D8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
@@ -1463,8 +1457,12 @@
       <c r="H8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1489,22 +1487,26 @@
       <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="44">
         <v>44236</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="46"/>
+      <c r="I9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="48">
+        <v>44236</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1527,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="22" t="s">
@@ -1537,21 +1539,25 @@
         <v>4</v>
       </c>
       <c r="F10" s="19"/>
-      <c r="G10" s="48">
+      <c r="G10" s="45">
         <v>44264</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="45">
         <v>44478</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="45">
+        <v>44264</v>
+      </c>
+      <c r="J10" s="50">
+        <v>44478</v>
+      </c>
     </row>
     <row r="11" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="22" t="s">
@@ -1567,8 +1573,12 @@
       <c r="H11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="29"/>
+      <c r="I11" s="51">
+        <v>44509</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1608,7 +1618,7 @@
         <v>44265</v>
       </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="31"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1626,114 +1636,114 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:26" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="23" t="s">
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="47">
+      <c r="F13" s="15"/>
+      <c r="G13" s="25">
         <v>44296</v>
       </c>
-      <c r="H13" s="47">
-        <v>44479</v>
-      </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="H13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="22" t="s">
-        <v>4</v>
-      </c>
+      <c r="D14" s="22"/>
       <c r="E14" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="25">
-        <v>44296</v>
+      <c r="G14" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:26" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>16</v>
+      <c r="B15" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="25" t="s">
-        <v>32</v>
+      <c r="E15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="20"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>25</v>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>34</v>
+      <c r="F16" s="15"/>
+      <c r="G16" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="20"/>
@@ -1754,46 +1764,6 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>9</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>

--- a/Ke-hoach-thuc-hien-Do-An-1.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\itproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1C1E3B-6AEC-430C-BADE-BB805AA0F9E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9724B688-D302-41C4-8B06-36DF15D88AB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>khảo sát, xây dựng tính năng cho trang web</t>
+  </si>
+  <si>
+    <t>19/9/2021</t>
+  </si>
+  <si>
+    <t>24/11/2021</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,9 +586,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,108 +1304,108 @@
     <col min="1" max="1" width="7" style="11" customWidth="1"/>
     <col min="2" max="2" width="51.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="33.21875" style="13" hidden="1" customWidth="1"/>
     <col min="7" max="10" width="25.77734375" style="13" customWidth="1"/>
     <col min="11" max="26" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:26" s="36" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
     </row>
-    <row r="2" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="1:26" s="36" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
     </row>
-    <row r="3" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="1:26" s="36" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="40" t="s">
+    <row r="4" spans="1:26" s="36" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="38">
         <v>19110277</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
     </row>
-    <row r="5" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="47" t="s">
+    <row r="5" spans="1:26" s="36" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>19110211</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
     </row>
-    <row r="6" spans="1:26" s="37" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
+    <row r="6" spans="1:26" s="36" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1437,17 +1440,17 @@
       </c>
     </row>
     <row r="8" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
@@ -1457,10 +1460,10 @@
       <c r="H8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="31" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="2"/>
@@ -1481,30 +1484,30 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <v>44236</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="47">
         <v>44236</v>
       </c>
       <c r="K9" s="2"/>
@@ -1532,23 +1535,23 @@
         <v>41</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="19"/>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>44264</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>44478</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <v>44264</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="49">
         <v>44478</v>
       </c>
     </row>
@@ -1560,23 +1563,23 @@
         <v>37</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>44509</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="50">
         <v>44509</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="2"/>
@@ -1604,7 +1607,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="15"/>
@@ -1614,11 +1617,15 @@
       <c r="G12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>44265</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="30"/>
+      <c r="I12" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="29">
+        <v>44265</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1644,21 +1651,25 @@
         <v>29</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>44296</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="20"/>
+      <c r="I13" s="24">
+        <v>44296</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1668,29 +1679,33 @@
         <v>16</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:26" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -1702,11 +1717,15 @@
       <c r="G15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="20"/>
+      <c r="I15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1732,21 +1751,25 @@
         <v>30</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="20"/>
+      <c r="I16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="29">
+        <v>44481</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
